--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
@@ -384,7 +384,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision on x recall on y</c:v>
+            <c:v>Precision vs recall</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1016,6 +1016,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="true"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1026,6 +1027,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -1037,6 +1040,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>
   <c:printSettings>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
@@ -384,7 +384,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision vs recall</c:v>
+            <c:v>Precision vs recall
+Precision on X-Axis
+Recall on y-Axis</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1042,7 +1044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:overlay val="true"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_27_evaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Rank</t>
   </si>
@@ -26,304 +26,307 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>CACM-2297-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2069-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1752-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2358-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2319-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2902-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2988-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3006-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2406-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1751-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2372-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1753-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3000-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1901-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2867-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2740-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1750-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1892-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2374-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2864-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1728-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2379-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3011-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2669-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2479-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2852-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2798-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2868-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2311-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3050-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3067-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2577-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2345-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2582-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2502-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2017-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1959-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2481-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2378-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2859-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1461-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3028-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1462-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2624-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3026-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1708-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1657-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2262-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1747-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2583-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1810-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2357-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3068-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2681-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1541-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1924-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1725-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2365-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2689-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2625-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2111-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2840-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0059-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2317-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3092-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0084-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2668-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2967-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3142-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2198-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2818-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2407-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2622-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3177-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2482-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1698-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2163-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1247-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1912-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0086-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2106-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2095-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2314-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2928-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0855-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1826-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1845-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3188-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2424-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1456-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2597-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2435-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2080-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2541-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1680-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3127-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3025-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3153-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1226-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2621-Stopping</t>
+    <t>CACM-2297</t>
+  </si>
+  <si>
+    <t>CACM-2069</t>
+  </si>
+  <si>
+    <t>CACM-1752</t>
+  </si>
+  <si>
+    <t>CACM-2358</t>
+  </si>
+  <si>
+    <t>CACM-2319</t>
+  </si>
+  <si>
+    <t>CACM-2902</t>
+  </si>
+  <si>
+    <t>CACM-2988</t>
+  </si>
+  <si>
+    <t>CACM-3006</t>
+  </si>
+  <si>
+    <t>CACM-2406</t>
+  </si>
+  <si>
+    <t>CACM-1751</t>
+  </si>
+  <si>
+    <t>CACM-2372</t>
+  </si>
+  <si>
+    <t>CACM-1753</t>
+  </si>
+  <si>
+    <t>CACM-3000</t>
+  </si>
+  <si>
+    <t>CACM-1901</t>
+  </si>
+  <si>
+    <t>CACM-2867</t>
+  </si>
+  <si>
+    <t>CACM-2740</t>
+  </si>
+  <si>
+    <t>CACM-1750</t>
+  </si>
+  <si>
+    <t>CACM-1892</t>
+  </si>
+  <si>
+    <t>CACM-2374</t>
+  </si>
+  <si>
+    <t>CACM-2864</t>
+  </si>
+  <si>
+    <t>CACM-1728</t>
+  </si>
+  <si>
+    <t>CACM-2379</t>
+  </si>
+  <si>
+    <t>CACM-3011</t>
+  </si>
+  <si>
+    <t>CACM-2669</t>
+  </si>
+  <si>
+    <t>CACM-2479</t>
+  </si>
+  <si>
+    <t>CACM-2852</t>
+  </si>
+  <si>
+    <t>CACM-2798</t>
+  </si>
+  <si>
+    <t>CACM-2868</t>
+  </si>
+  <si>
+    <t>CACM-2311</t>
+  </si>
+  <si>
+    <t>CACM-3050</t>
+  </si>
+  <si>
+    <t>CACM-3067</t>
+  </si>
+  <si>
+    <t>CACM-2577</t>
+  </si>
+  <si>
+    <t>CACM-2345</t>
+  </si>
+  <si>
+    <t>CACM-2582</t>
+  </si>
+  <si>
+    <t>CACM-2502</t>
+  </si>
+  <si>
+    <t>CACM-2017</t>
+  </si>
+  <si>
+    <t>CACM-1959</t>
+  </si>
+  <si>
+    <t>CACM-2481</t>
+  </si>
+  <si>
+    <t>CACM-2378</t>
+  </si>
+  <si>
+    <t>CACM-2859</t>
+  </si>
+  <si>
+    <t>CACM-1461</t>
+  </si>
+  <si>
+    <t>CACM-3028</t>
+  </si>
+  <si>
+    <t>CACM-1462</t>
+  </si>
+  <si>
+    <t>CACM-2624</t>
+  </si>
+  <si>
+    <t>CACM-3026</t>
+  </si>
+  <si>
+    <t>CACM-1708</t>
+  </si>
+  <si>
+    <t>CACM-1657</t>
+  </si>
+  <si>
+    <t>CACM-2262</t>
+  </si>
+  <si>
+    <t>CACM-1747</t>
+  </si>
+  <si>
+    <t>CACM-2583</t>
+  </si>
+  <si>
+    <t>CACM-1810</t>
+  </si>
+  <si>
+    <t>CACM-2357</t>
+  </si>
+  <si>
+    <t>CACM-3068</t>
+  </si>
+  <si>
+    <t>CACM-2681</t>
+  </si>
+  <si>
+    <t>CACM-1541</t>
+  </si>
+  <si>
+    <t>CACM-1924</t>
+  </si>
+  <si>
+    <t>CACM-1725</t>
+  </si>
+  <si>
+    <t>CACM-2365</t>
+  </si>
+  <si>
+    <t>CACM-2689</t>
+  </si>
+  <si>
+    <t>CACM-2625</t>
+  </si>
+  <si>
+    <t>CACM-2111</t>
+  </si>
+  <si>
+    <t>CACM-2840</t>
+  </si>
+  <si>
+    <t>CACM-0059</t>
+  </si>
+  <si>
+    <t>CACM-2317</t>
+  </si>
+  <si>
+    <t>CACM-3092</t>
+  </si>
+  <si>
+    <t>CACM-0084</t>
+  </si>
+  <si>
+    <t>CACM-2668</t>
+  </si>
+  <si>
+    <t>CACM-2967</t>
+  </si>
+  <si>
+    <t>CACM-3142</t>
+  </si>
+  <si>
+    <t>CACM-2198</t>
+  </si>
+  <si>
+    <t>CACM-2818</t>
+  </si>
+  <si>
+    <t>CACM-2407</t>
+  </si>
+  <si>
+    <t>CACM-2622</t>
+  </si>
+  <si>
+    <t>CACM-3177</t>
+  </si>
+  <si>
+    <t>CACM-2482</t>
+  </si>
+  <si>
+    <t>CACM-1698</t>
+  </si>
+  <si>
+    <t>CACM-2163</t>
+  </si>
+  <si>
+    <t>CACM-1247</t>
+  </si>
+  <si>
+    <t>CACM-1912</t>
+  </si>
+  <si>
+    <t>CACM-0086</t>
+  </si>
+  <si>
+    <t>CACM-2106</t>
+  </si>
+  <si>
+    <t>CACM-2095</t>
+  </si>
+  <si>
+    <t>CACM-2314</t>
+  </si>
+  <si>
+    <t>CACM-2928</t>
+  </si>
+  <si>
+    <t>CACM-0855</t>
+  </si>
+  <si>
+    <t>CACM-1826</t>
+  </si>
+  <si>
+    <t>CACM-1845</t>
+  </si>
+  <si>
+    <t>CACM-3188</t>
+  </si>
+  <si>
+    <t>CACM-2424</t>
+  </si>
+  <si>
+    <t>CACM-1456</t>
+  </si>
+  <si>
+    <t>CACM-2597</t>
+  </si>
+  <si>
+    <t>CACM-2435</t>
+  </si>
+  <si>
+    <t>CACM-2080</t>
+  </si>
+  <si>
+    <t>CACM-2541</t>
+  </si>
+  <si>
+    <t>CACM-1680</t>
+  </si>
+  <si>
+    <t>CACM-3127</t>
+  </si>
+  <si>
+    <t>CACM-3025</t>
+  </si>
+  <si>
+    <t>CACM-3153</t>
+  </si>
+  <si>
+    <t>CACM-1226</t>
+  </si>
+  <si>
+    <t>CACM-2621</t>
+  </si>
+  <si>
+    <t>MAP is -&gt;0.1644160453803631</t>
   </si>
 </sst>
 </file>
@@ -397,304 +400,304 @@
               <c:numCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.034482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.034482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1724137931034483</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5172413793103449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,304 +708,304 @@
               <c:numCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4117647058823529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3684210526315789</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0.34782608695652173</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2702702702702703</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2894736842105263</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.28205128205128205</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2926829268292683</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.27906976744186046</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2553191489361702</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.24489795918367346</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.23529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0.22641509433962265</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0.21818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2033898305084746</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0.19672131147540983</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1935483870967742</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.18461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1791044776119403</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.18309859154929578</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.18055555555555555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1780821917808219</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17567567567567569</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16883116883116883</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16455696202531644</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16049382716049382</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17073170731707318</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1686746987951807</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16470588235294117</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16279069767441862</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16091954022988506</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1590909090909091</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15730337078651685</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16304347826086957</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1595744680851064</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15463917525773196</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15306122448979592</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,16 +1096,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:CZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.91015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1127,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>0.034482758620689655</v>
       </c>
     </row>
     <row r="3">
@@ -1141,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>0.034482758620689655</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1158,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="5">
@@ -1169,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -1183,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="7">
@@ -1197,10 +1200,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="8">
@@ -1211,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="9">
@@ -1225,10 +1228,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="10">
@@ -1239,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1256,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="12">
@@ -1267,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="13">
@@ -1281,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="14">
@@ -1295,10 +1298,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="15">
@@ -1309,10 +1312,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="16">
@@ -1323,10 +1326,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="17">
@@ -1337,10 +1340,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="18">
@@ -1351,10 +1354,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="19">
@@ -1365,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="20">
@@ -1379,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="21">
@@ -1393,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="22">
@@ -1407,10 +1410,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="23">
@@ -1421,10 +1424,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="24">
@@ -1435,10 +1438,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="25">
@@ -1449,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="26">
@@ -1463,10 +1466,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="27">
@@ -1477,10 +1480,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="28">
@@ -1491,10 +1494,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="29">
@@ -1505,10 +1508,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="30">
@@ -1519,10 +1522,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="31">
@@ -1533,10 +1536,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="32">
@@ -1547,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="33">
@@ -1561,10 +1564,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>0.3125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="34">
@@ -1575,10 +1578,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="35">
@@ -1589,10 +1592,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="36">
@@ -1603,10 +1606,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="37">
@@ -1617,10 +1620,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="38">
@@ -1631,10 +1634,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="39">
@@ -1645,10 +1648,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="40">
@@ -1659,10 +1662,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="41">
@@ -1673,10 +1676,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="42">
@@ -1687,10 +1690,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="43">
@@ -1701,10 +1704,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="44">
@@ -1715,10 +1718,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>0.27906976744186046</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="45">
@@ -1729,10 +1732,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="46">
@@ -1743,10 +1746,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="47">
@@ -1757,10 +1760,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="48">
@@ -1771,10 +1774,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="49">
@@ -1785,10 +1788,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="50">
@@ -1799,10 +1802,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>0.24489795918367346</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="51">
@@ -1813,10 +1816,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="52">
@@ -1827,10 +1830,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="53">
@@ -1841,10 +1844,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="54">
@@ -1855,10 +1858,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="55">
@@ -1869,10 +1872,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="56">
@@ -1883,10 +1886,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="57">
@@ -1897,10 +1900,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="58">
@@ -1911,10 +1914,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="59">
@@ -1925,10 +1928,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="60">
@@ -1939,10 +1942,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="61">
@@ -1953,10 +1956,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="62">
@@ -1967,10 +1970,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="63">
@@ -1981,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="64">
@@ -1995,10 +1998,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="65">
@@ -2009,10 +2012,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>0.1875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="66">
@@ -2023,10 +2026,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="67">
@@ -2037,10 +2040,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="68">
@@ -2051,10 +2054,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="69">
@@ -2065,10 +2068,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="70">
@@ -2079,10 +2082,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="71">
@@ -2093,10 +2096,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="72">
@@ -2107,10 +2110,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0</v>
+        <v>0.18309859154929578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="73">
@@ -2121,10 +2124,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="74">
@@ -2135,10 +2138,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="75">
@@ -2149,10 +2152,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>0.17567567567567569</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="76">
@@ -2163,10 +2166,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="77">
@@ -2177,10 +2180,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>0.17105263157894737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="78">
@@ -2191,10 +2194,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="79">
@@ -2205,10 +2208,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="80">
@@ -2219,10 +2222,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="81">
@@ -2233,10 +2236,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0</v>
+        <v>0.1625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2250,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0</v>
+        <v>0.16049382716049382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="83">
@@ -2261,10 +2264,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="84">
@@ -2275,10 +2278,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="85">
@@ -2289,10 +2292,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="86">
@@ -2303,10 +2306,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>0.16470588235294117</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="87">
@@ -2317,10 +2320,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="88">
@@ -2331,10 +2334,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0</v>
+        <v>0.16091954022988506</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="89">
@@ -2345,10 +2348,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="90">
@@ -2359,10 +2362,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="91">
@@ -2373,10 +2376,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="92">
@@ -2387,10 +2390,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="93">
@@ -2401,10 +2404,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="94">
@@ -2415,10 +2418,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="95">
@@ -2429,10 +2432,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="96">
@@ -2443,10 +2446,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="97">
@@ -2457,10 +2460,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0</v>
+        <v>0.15625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="98">
@@ -2471,10 +2474,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0</v>
+        <v>0.15463917525773196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="99">
@@ -2485,10 +2488,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="100">
@@ -2499,10 +2502,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="101">
@@ -2513,10 +2516,15 @@
         <v>103</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0</v>
+        <v>0.5172413793103449</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="CY102" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
